--- a/personal/kanayama/01 socket/TCPとUDPの特徴・違い.xlsx
+++ b/personal/kanayama/01 socket/TCPとUDPの特徴・違い.xlsx
@@ -49,27 +49,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラスライブラリjava.net.ServerSocketおよび
-java.net.Socketを利用する通信方法</t>
-    <rPh sb="53" eb="55">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラスライブラリjava.net.DatagramSocketおよびjava.net.DatagramPacketを利用する通信方法</t>
-    <rPh sb="62" eb="64">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・通信の信頼性が低い</t>
     <rPh sb="1" eb="3">
       <t>ツウシン</t>
@@ -83,35 +62,63 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・PCにとって、ネットワークでのデータの転送負荷が大きい</t>
-    <rPh sb="20" eb="22">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・PCにとって、ネットワークでのデータの転送負荷が小さい
+・複数の相手に同時にデータを送信できる
 ・リアルタイムの通信に適している</t>
     <rPh sb="25" eb="26">
       <t>チイ</t>
     </rPh>
+    <rPh sb="30" eb="32">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・PCにとって、ネットワークでのデータの転送負荷が大きい
+・1対多のデータ通信を行えない</t>
+    <rPh sb="20" eb="22">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タ</t>
+    </rPh>
     <rPh sb="37" eb="39">
       <t>ツウシン</t>
     </rPh>
     <rPh sb="40" eb="41">
-      <t>テキ</t>
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・通信の信頼性が高い
-・通信障害等による、データの欠落もある程度修正できる</t>
+・通信障害等による、データの欠落もある程度修正できる
+・メールが相手に到達したか、チェックできる機能がある
+・到達したデータを送信順に並べ替える機能がある</t>
     <rPh sb="1" eb="3">
       <t>ツウシン</t>
     </rPh>
@@ -138,6 +145,69 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クラスライブラリjava.net.ServerSocketおよび
+　java.net.Socketを利用する通信方法
+・コネクション型の通信</t>
+    <rPh sb="55" eb="57">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クラスライブラリjava.net.DatagramSocketおよび
+　java.net.DatagramPacketを利用する通信方法
+・コネクションレス型の通信</t>
+    <rPh sb="65" eb="67">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ツウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -256,29 +326,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +633,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -575,88 +645,88 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
